--- a/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
+++ b/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test case 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="146">
   <si>
     <t>Expected Result</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Verify the "completed" field in the response body.</t>
   </si>
   <si>
-    <t>The value of the "completed" field in the response body should be "true"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -1234,6 +1231,12 @@
   </si>
   <si>
     <t>The books list should not contain the id of the deleted book</t>
+  </si>
+  <si>
+    <t>The value of the "completed" field in the response body should be a bollean value</t>
+  </si>
+  <si>
+    <t>The value of the "completed" field in the response body should be a boolean value</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,18 +1693,18 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
         <v>16</v>
@@ -1710,14 +1713,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1726,12 +1729,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1750,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1764,15 +1767,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -1815,7 +1829,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1831,7 +1845,7 @@
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -1858,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -1926,7 +1940,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1942,7 +1956,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -1969,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1980,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1991,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -2002,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -2013,10 +2027,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2047,10 +2061,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2059,7 +2073,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2075,7 +2089,7 @@
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2102,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +2138,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2135,10 +2149,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2169,10 +2183,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2181,7 +2195,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2197,7 +2211,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2224,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2260,7 +2274,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2268,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2302,10 +2316,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2314,7 +2328,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2330,7 +2344,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2357,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2379,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2413,10 +2427,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2425,7 +2439,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2441,7 +2455,7 @@
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2468,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2524,10 +2538,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2536,7 +2550,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2552,7 +2566,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2579,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2590,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2601,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -2612,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -2623,10 +2637,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2643,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2802,7 +2816,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2818,7 +2832,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2870,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2902,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2913,7 +2927,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2929,7 +2943,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2956,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,7 +2984,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2978,10 +2992,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2989,10 +3003,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +3024,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,7 +3040,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3035,7 +3049,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3051,7 +3065,7 @@
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3078,10 +3092,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,7 +3117,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3111,10 +3125,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3131,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3157,7 +3171,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3203,7 +3217,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3211,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3222,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -3233,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -3244,10 +3258,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3295,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3290,7 +3304,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3306,7 +3320,7 @@
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3333,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3355,10 +3369,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3366,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3412,7 +3426,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3428,7 +3442,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3455,10 +3469,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3488,10 +3502,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3499,10 +3513,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3536,7 +3550,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3545,7 +3559,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3561,7 +3575,7 @@
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3588,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
+++ b/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="test case 1" sheetId="1" r:id="rId1"/>
@@ -1165,6 +1165,57 @@
     </r>
   </si>
   <si>
+    <t>Send a PUT request to "/api/vi/Books/author_id" endpoint with valid book data</t>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the updated book details(body).</t>
+  </si>
+  <si>
+    <t>Verify the value of the key "id" in the response body</t>
+  </si>
+  <si>
+    <t>Verify the response body</t>
+  </si>
+  <si>
+    <t>The value of the key "id" should be an integer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case 016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Successful Deletion of an Book by ID</t>
+    </r>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and a  list of all books</t>
+  </si>
+  <si>
+    <t>Send a DELETE request to "/api/vi/Books/book_id" endpoint.</t>
+  </si>
+  <si>
+    <t>Verify that the deleted book is not in the books list</t>
+  </si>
+  <si>
+    <t>The books list should not contain the id of the deleted book</t>
+  </si>
+  <si>
+    <t>The value of the "completed" field in the response body should be a bollean value</t>
+  </si>
+  <si>
+    <t>The value of the "completed" field in the response body should be a boolean value</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1184,59 +1235,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Verify successful update of an book by its ID with valid data</t>
-    </r>
-  </si>
-  <si>
-    <t>Send a PUT request to "/api/vi/Books/author_id" endpoint with valid book data</t>
-  </si>
-  <si>
-    <t>API expected to return a success response with status code 200 and the updated book details(body).</t>
-  </si>
-  <si>
-    <t>Verify the value of the key "id" in the response body</t>
-  </si>
-  <si>
-    <t>Verify the response body</t>
-  </si>
-  <si>
-    <t>The value of the key "id" should be an integer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Case 016</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test case name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Successful Deletion of an Book by ID</t>
-    </r>
-  </si>
-  <si>
-    <t>API expected to return a success response with status code 200 and a  list of all books</t>
-  </si>
-  <si>
-    <t>Send a DELETE request to "/api/vi/Books/book_id" endpoint.</t>
-  </si>
-  <si>
-    <t>Verify that the deleted book is not in the books list</t>
-  </si>
-  <si>
-    <t>The books list should not contain the id of the deleted book</t>
-  </si>
-  <si>
-    <t>The value of the "completed" field in the response body should be a bollean value</t>
-  </si>
-  <si>
-    <t>The value of the "completed" field in the response body should be a boolean value</t>
+      <t>Verify successful update of a book by its ID with valid data</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1804,7 +1804,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2048,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2170,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2439,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2482,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2524,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,10 +2538,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2596,7 +2596,7 @@
         <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
@@ -2637,10 +2637,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2884,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3117,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -3279,7 +3279,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3401,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,7 +3534,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>93</v>

--- a/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
+++ b/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1236,6 +1236,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>Verify successful update of a book by its ID with valid data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test Objective: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify successful deletion of a book by its ID</t>
     </r>
   </si>
 </sst>
@@ -2524,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -2550,7 +2573,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>

--- a/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
+++ b/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="test case 1" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>Send a POST request to "/api/vi/Activities" endpoint with valid activity data</t>
   </si>
   <si>
-    <t>API expected to return a success response with status code 200 and the created activity details(body).</t>
-  </si>
-  <si>
     <t>Verify the "completed" field in the response body.</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>The body should contain an "errors" key.</t>
   </si>
   <si>
-    <t>API expected to return a Bad Request response with status code 400 and a body that contains error message.</t>
-  </si>
-  <si>
     <t>Verify the value of the key "errors" in the response body is not empty.</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
     <t>Send a PUT request to "/api/vi/Activities/activity_id" endpoint with valid activity data</t>
   </si>
   <si>
-    <t>API expected to return a success response with status code 200 and the updated activity details(body).</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -810,9 +801,6 @@
     <t>Send a POST request to "/api/vi/Authors" endpoint with valid author data</t>
   </si>
   <si>
-    <t>API expected to return a success response with status code 200 and the created author details(body).</t>
-  </si>
-  <si>
     <t>Verify the the response body</t>
   </si>
   <si>
@@ -883,9 +871,6 @@
     <t>Send a PUT request to "/api/vi/Authors/author_id" endpoint with valid author data</t>
   </si>
   <si>
-    <t>API expected to return a success response with status code 200 and the updated author details(body).</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -1118,9 +1103,6 @@
     <t>Send a POST request to "/api/vi/Books" endpoint with valid book data</t>
   </si>
   <si>
-    <t>API expected to return a success response with status code 200 and the created book details(body).</t>
-  </si>
-  <si>
     <t>The response body should match the sent book body with the post request</t>
   </si>
   <si>
@@ -1168,9 +1150,6 @@
     <t>Send a PUT request to "/api/vi/Books/author_id" endpoint with valid book data</t>
   </si>
   <si>
-    <t>API expected to return a success response with status code 200 and the updated book details(body).</t>
-  </si>
-  <si>
     <t>Verify the value of the key "id" in the response body</t>
   </si>
   <si>
@@ -1260,6 +1239,73 @@
       </rPr>
       <t>Verify successful deletion of a book by its ID</t>
     </r>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the created activity details(body).
+Request body{
+"id": "13",
+"title": "fOA4E",
+"dueDate": "2049-10-01T01:00:23.205Z",
+"completed": false
+}</t>
+  </si>
+  <si>
+    <t>API expected to return a Bad Request response with status code 400 and a body that contains error message.
+Request body {
+"id": "fOA4E",
+"title": "13",
+"dueDate": "2049-10-01T01:00:23.205Z",
+"completed": false
+}</t>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the updated activity details(body).
+Request body {
+  "id": 13, 
+  "title": "fOA4E", 
+  "dueDate": "2044-10-29T13:55:32.951326+00:00", 
+  "completed": false
+}</t>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the created author details(body).
+Request body {
+    "id": 234,
+    "idBook": 444,
+    "firstName": "jameel",
+    "lastName": "ali"
+}</t>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the updated author details(body).
+Request body {
+    "id": 5,
+    "idBook": 15,
+    "firstName": "sam",
+    "lastName": "som"
+}</t>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the created book details(body).
+Request body {
+    "id": 15,
+    "title": "book 300",
+    "description": "about the movie",
+    "pageCount": "132",
+    "excerpt": "history",
+    "publishDate": "2000-07-17T11:45:21"
+}</t>
+  </si>
+  <si>
+    <t>API expected to return a success response with status code 200 and the updated book details(body).
+Request body {
+    "id": 23,
+    "title": "book 400",
+    "description": "about the movie",
+    "pageCount": 140,
+    "excerpt": "history",
+    "publishDate": "2000-07-17T03:45:21"
+}</t>
   </si>
 </sst>
 </file>
@@ -1702,32 +1748,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
         <v>16</v>
@@ -1736,14 +1782,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1752,12 +1798,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1768,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1776,10 +1822,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1790,26 +1836,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <v>146</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1827,59 +1862,59 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="H16" sqref="H10:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1890,18 +1925,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1912,15 +1947,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1937,60 +1972,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2001,59 +2036,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2074,56 +2109,56 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2134,18 +2169,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2156,26 +2191,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2196,56 +2231,56 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2256,18 +2291,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2278,7 +2313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -2297,18 +2332,18 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2326,59 +2361,59 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="I15" sqref="I8:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2389,18 +2424,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2411,15 +2446,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2436,60 +2471,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G9:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2500,18 +2535,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2522,15 +2557,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2551,56 +2586,56 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2611,59 +2646,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2680,19 +2715,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
         <v>30</v>
@@ -2712,14 +2747,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -2728,12 +2763,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2744,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2766,7 +2801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -2777,7 +2812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -2788,7 +2823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -2814,59 +2849,59 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C20" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2877,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2885,10 +2920,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2899,15 +2934,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2925,59 +2960,59 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2988,18 +3023,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3007,29 +3042,29 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3046,60 +3081,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3110,18 +3145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3132,26 +3167,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3172,42 +3207,42 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -3216,12 +3251,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -3240,51 +3275,51 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3305,56 +3340,56 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3365,18 +3400,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3387,26 +3422,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3427,56 +3462,56 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3487,18 +3522,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3509,7 +3544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -3520,26 +3555,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3557,59 +3592,59 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="I18" sqref="I12:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3620,18 +3655,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3642,15 +3677,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
+++ b/API_test_project_part_b/project_documents/fake_rest_test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="test case 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="148">
   <si>
     <t>Expected Result</t>
   </si>
@@ -213,9 +213,6 @@
     <t xml:space="preserve">The value type of the response body "id" key should be an integer. </t>
   </si>
   <si>
-    <t xml:space="preserve">The value type of the response body "title" key should be a string. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -406,9 +403,6 @@
     <t>Verify the value of the key "errors" in the response body is not empty.</t>
   </si>
   <si>
-    <t>The key "errors" in the response body should not be none and contain an error messgae.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -476,9 +470,6 @@
     <t>Verify the "title" field in the response body.</t>
   </si>
   <si>
-    <t>The value of the "title" field in the response body should match the title in the request body</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -529,9 +520,6 @@
     <t>Verify the status code of the DELETE Request.</t>
   </si>
   <si>
-    <t>The activities list should not contain the id of the deleted activity</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -597,9 +585,6 @@
     <t>verify the response body is a list.</t>
   </si>
   <si>
-    <t>The response body should be a list of activities</t>
-  </si>
-  <si>
     <t>The response body should be a list of authors</t>
   </si>
   <si>
@@ -609,9 +594,6 @@
     <t>Verify that every entry in the authors list within the response body is a dictionary and contain the number of fields specified  in the configuration  file</t>
   </si>
   <si>
-    <t>The response body should be a list of authors and every item of this list is a dictionary with a number of fields specified in the configuration file</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -708,9 +690,6 @@
     <t>verify the type of the value of the response body "firstName" key</t>
   </si>
   <si>
-    <t xml:space="preserve">The value type of the response body "firstName" key should be a string. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -804,9 +783,6 @@
     <t>Verify the the response body</t>
   </si>
   <si>
-    <t>The response body should match the sent author body with the post request</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -921,9 +897,6 @@
     <t>Verify that the deleted author is not in the authors list</t>
   </si>
   <si>
-    <t>The authors list should not contain the id of the deleted author</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test case name: </t>
     </r>
@@ -997,9 +970,6 @@
     <t>Verify that every entry in the books list within the response body is a dictionary and contain the number of fields specified  in the configuration  file</t>
   </si>
   <si>
-    <t>The response body should be a list of books and every item of this list is a dictionary with a number of fields specified in the configuration file</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Test Case 012</t>
   </si>
   <si>
@@ -1053,9 +1023,6 @@
     <t>verify the type of the value of the response body "pageCount" key</t>
   </si>
   <si>
-    <t xml:space="preserve">The value type of the response body "pageCount" key should be a string. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The value type of the response body "title" key should be an integer. </t>
   </si>
   <si>
@@ -1103,9 +1070,6 @@
     <t>Send a POST request to "/api/vi/Books" endpoint with valid book data</t>
   </si>
   <si>
-    <t>The response body should match the sent book body with the post request</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Test Case 015</t>
   </si>
   <si>
@@ -1156,9 +1120,6 @@
     <t>Verify the response body</t>
   </si>
   <si>
-    <t>The value of the key "id" should be an integer.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Test Case 016</t>
   </si>
   <si>
@@ -1184,12 +1145,6 @@
   </si>
   <si>
     <t>Verify that the deleted book is not in the books list</t>
-  </si>
-  <si>
-    <t>The books list should not contain the id of the deleted book</t>
-  </si>
-  <si>
-    <t>The value of the "completed" field in the response body should be a bollean value</t>
   </si>
   <si>
     <t>The value of the "completed" field in the response body should be a boolean value</t>
@@ -1306,6 +1261,451 @@
     "excerpt": "history",
     "publishDate": "2000-07-17T03:45:21"
 }</t>
+  </si>
+  <si>
+    <t>The response body should be a list of activities
+[
+    {
+        "id": 1,
+        "title": "Activity 1",
+        "dueDate": "2024-07-23T09:24:08.0352574+00:00",
+        "completed": false
+    },
+    {
+        "id": 2,
+        "title": "Activity 2",
+        "dueDate": "2024-07-23T10:24:08.0352601+00:00",
+        "completed": true
+    },
+    {
+        "id": 3,
+        "title": "Activity 3",
+        "dueDate": "2024-07-23T11:24:08.0352604+00:00",
+        "completed": false
+    },
+    {
+        "id": 4,
+        "title": "Activity 4",
+        "dueDate": "2024-07-23T12:24:08.0352606+00:00",
+        "completed": true
+    },
+    {
+        "id": 5,
+        "title": "Activity 5",
+        "dueDate": "2024-07-23T13:24:08.0352609+00:00",
+        "completed": false
+    },
+    {
+        "id": 6,
+        "title": "Activity 6",
+        "dueDate": "2024-07-23T14:24:08.0352615+00:00",
+        "completed": true
+    },
+    {
+        "id": 7,
+        "title": "Activity 7",
+        "dueDate": "2024-07-23T15:24:08.0352617+00:00",
+        "completed": false
+    },
+    {
+        "id": 8,
+        "title": "Activity 8",
+        "dueDate": "2024-07-23T16:24:08.035262+00:00",
+        "completed": true
+    },
+    {
+        "id": 9,
+        "title": "Activity 9",
+        "dueDate": "2024-07-23T17:24:08.0352623+00:00",
+        "completed": false
+    },
+    {
+        "id": 10,
+        "title": "Activity 10",
+        "dueDate": "2024-07-23T18:24:08.0352628+00:00",
+        "completed": true
+    },
+    {
+        "id": 11,
+        "title": "Activity 11",
+        "dueDate": "2024-07-23T19:24:08.0352631+00:00",
+        "completed": false
+    },
+    {
+        "id": 12,
+        "title": "Activity 12",
+        "dueDate": "2024-07-23T20:24:08.0352634+00:00",
+        "completed": true
+    },
+    {
+        "id": 13,
+        "title": "Activity 13",
+        "dueDate": "2024-07-23T21:24:08.0352637+00:00",
+        "completed": false
+    },
+    {
+        "id": 14,
+        "title": "Activity 14",
+        "dueDate": "2024-07-23T22:24:08.035264+00:00",
+        "completed": true
+    },
+    {
+        "id": 15,
+        "title": "Activity 15",
+        "dueDate": "2024-07-23T23:24:08.0352643+00:00",
+        "completed": false
+    },
+    {
+        "id": 16,
+        "title": "Activity 16",
+        "dueDate": "2024-07-24T00:24:08.0352645+00:00",
+        "completed": true
+    },
+    {
+        "id": 17,
+        "title": "Activity 17",
+        "dueDate": "2024-07-24T01:24:08.0352648+00:00",
+        "completed": false
+    },
+    {
+        "id": 18,
+        "title": "Activity 18",
+        "dueDate": "2024-07-24T02:24:08.0352652+00:00",
+        "completed": true
+    },
+    {
+        "id": 19,
+        "title": "Activity 19",
+        "dueDate": "2024-07-24T03:24:08.0352655+00:00",
+        "completed": false
+    },
+    {
+        "id": 20,
+        "title": "Activity 20",
+        "dueDate": "2024-07-24T04:24:08.0352658+00:00",
+        "completed": true
+    },
+    {
+        "id": 21,
+        "title": "Activity 21",
+        "dueDate": "2024-07-24T05:24:08.035266+00:00",
+        "completed": false
+    },
+    {
+        "id": 22,
+        "title": "Activity 22",
+        "dueDate": "2024-07-24T06:24:08.0352663+00:00",
+        "completed": true
+    },
+    {
+        "id": 23,
+        "title": "Activity 23",
+        "dueDate": "2024-07-24T07:24:08.0352666+00:00",
+        "completed": false
+    },
+    {
+        "id": 24,
+        "title": "Activity 24",
+        "dueDate": "2024-07-24T08:24:08.0352668+00:00",
+        "completed": true
+    },
+    {
+        "id": 25,
+        "title": "Activity 25",
+        "dueDate": "2024-07-24T09:24:08.0352671+00:00",
+        "completed": false
+    },
+    {
+        "id": 26,
+        "title": "Activity 26",
+        "dueDate": "2024-07-24T10:24:08.0352674+00:00",
+        "completed": true
+    },
+    {
+        "id": 27,
+        "title": "Activity 27",
+        "dueDate": "2024-07-24T11:24:08.0352676+00:00",
+        "completed": false
+    },
+    {
+        "id": 28,
+        "title": "Activity 28",
+        "dueDate": "2024-07-24T12:24:08.0352679+00:00",
+        "completed": true
+    },
+    {
+        "id": 29,
+        "title": "Activity 29",
+        "dueDate": "2024-07-24T13:24:08.0352682+00:00",
+        "completed": false
+    },
+    {
+        "id": 30,
+        "title": "Activity 30",
+        "dueDate": "2024-07-24T14:24:08.0352685+00:00",
+        "completed": true
+    }
+]</t>
+  </si>
+  <si>
+    <t>The value type of the response body "title" key should be a string. 
+Response body with "id" = 1
+{
+    "id": 1,
+    "title": "Activity 1",
+    "dueDate": "2024-07-23T09:25:17.7070302+00:00",
+    "completed": false
+}</t>
+  </si>
+  <si>
+    <t>The value of the "completed" field in the response body should be a bollean value
+response body {
+"id": "13",
+"title": "fOA4E",
+"dueDate": "2049-10-01T01:00:23.205Z",
+"completed": false
+}</t>
+  </si>
+  <si>
+    <t>The key "errors" in the response body should not be none and contain an error messgae.
+Response body {
+    "type": "https://tools.ietf.org/html/rfc7231#section-6.5.1",
+    "title": "One or more validation errors occurred.",
+    "status": 400,
+    "traceId": "00-f1d416b1ede6844c82e06325fb9e90b1-9eb8887a02661048-00",
+    "errors": {
+        "$.id": [
+            "The JSON value could not be converted to System.Int32. Path: $.id | LineNumber: 1 | BytePositionInLine: 13."
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>The value of the "title" field in the response body should match the title in the request body
+Response body {
+  "id": 13, 
+  "title": "fOA4E", 
+  "dueDate": "2044-10-29T13:55:32.951326+00:00", 
+  "completed": false
+}</t>
+  </si>
+  <si>
+    <t>The activities list should not contain the id of the deleted activity
+The response body will be empty</t>
+  </si>
+  <si>
+    <t>The value type of the response body "firstName" key should be a string. 
+Response body with "id" = 13 {
+    "id": 13,
+    "idBook": 5,
+    "firstName": "First Name 13",
+    "lastName": "Last Name 13"
+}</t>
+  </si>
+  <si>
+    <t>The response body should match the sent author body with the post request
+Response body {
+    "id": 234,
+    "idBook": 444,
+    "firstName": "jameel",
+    "lastName": "ali"
+}</t>
+  </si>
+  <si>
+    <t>The response body should match the sent author body with the post request
+Response body {
+    "id": 5,
+    "idBook": 15,
+    "firstName": "sam",
+    "lastName": "som"
+}</t>
+  </si>
+  <si>
+    <t>The authors list should not contain the id of the deleted author
+The response body will be empty</t>
+  </si>
+  <si>
+    <t>The value type of the response body "pageCount" key should be a string. 
+Response body with "id" = 19 {
+    "id": 19,
+    "title": "Book 19",
+    "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+    "pageCount": 1900,
+    "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+    "publishDate": "2024-07-04T08:35:00.1985594+00:00"
+}</t>
+  </si>
+  <si>
+    <t>The value of the key "id" should be an integer.
+Response body {
+    "id": 15,
+    "title": "book 300",
+    "description": "about the movie",
+    "pageCount": "132",
+    "excerpt": "history",
+    "publishDate": "2000-07-17T11:45:21"
+}</t>
+  </si>
+  <si>
+    <t>The response body should match the sent book body with the post request
+Response body {
+    "id": 23,
+    "title": "book 400",
+    "description": "about the movie",
+    "pageCount": 140,
+    "excerpt": "history",
+    "publishDate": "2000-07-17T03:45:21"
+}</t>
+  </si>
+  <si>
+    <t>The books list should not contain the id of the deleted book
+The response body will be empty</t>
+  </si>
+  <si>
+    <t>The response body should be a list of books and every item of this list is a dictionary with a number of fields specified in the configuration file
+Respons body [
+    {
+        "id": 1,
+        "title": "Book 1",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 100,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-22T08:33:53.7894673+00:00"
+    },
+    {
+        "id": 2,
+        "title": "Book 2",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 200,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-21T08:33:53.7894854+00:00"
+    },
+    {
+        "id": 3,
+        "title": "Book 3",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 300,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-20T08:33:53.7894974+00:00"
+    },
+    {
+        "id": 4,
+        "title": "Book 4",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 400,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-19T08:33:53.7895094+00:00"
+    },
+    {
+        "id": 5,
+        "title": "Book 5",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 500,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-18T08:33:53.7895231+00:00"
+    },
+    {
+        "id": 6,
+        "title": "Book 6",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 600,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-17T08:33:53.7895356+00:00"
+    },
+    {
+        "id": 7,
+        "title": "Book 7",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 700,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-16T08:33:53.7895495+00:00"
+    },
+    {
+        "id": 8,
+        "title": "Book 8",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 800,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-15T08:33:53.7895614+00:00"
+    },
+    {
+        "id": 9,
+        "title": "Book 9",
+        "description": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "pageCount": 900,
+        "excerpt": "Lorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\nLorem lorem lorem. Lorem lorem lorem. Lorem lorem lorem.\n",
+        "publishDate": "2024-07-14T08:33:53.7895753+00:00"
+    },</t>
+  </si>
+  <si>
+    <t>The response body should be a list of authors and every item of this list is a dictionary with a number of fields specified in the configuration file
+Response body [
+    {
+        "id": 1,
+        "idBook": 1,
+        "firstName": "First Name 1",
+        "lastName": "Last Name 1"
+    },
+    {
+        "id": 2,
+        "idBook": 1,
+        "firstName": "First Name 2",
+        "lastName": "Last Name 2"
+    },
+    {
+        "id": 3,
+        "idBook": 1,
+        "firstName": "First Name 3",
+        "lastName": "Last Name 3"
+    },
+    {
+        "id": 4,
+        "idBook": 2,
+        "firstName": "First Name 4",
+        "lastName": "Last Name 4"
+    },
+    {
+        "id": 5,
+        "idBook": 2,
+        "firstName": "First Name 5",
+        "lastName": "Last Name 5"
+    },
+    {
+        "id": 6,
+        "idBook": 2,
+        "firstName": "First Name 6",
+        "lastName": "Last Name 6"
+    },
+    {
+        "id": 7,
+        "idBook": 2,
+        "firstName": "First Name 7",
+        "lastName": "Last Name 7"
+    },
+    {
+        "id": 8,
+        "idBook": 3,
+        "firstName": "First Name 8",
+        "lastName": "Last Name 8"
+    },
+    {
+        "id": 9,
+        "idBook": 3,
+        "firstName": "First Name 9",
+        "lastName": "Last Name 9"
+    },
+    {
+        "id": 10,
+        "idBook": 3,
+        "firstName": "First Name 10",
+        "lastName": "Last Name 10"
+    },
+    {
+        "id": 11,
+        "idBook": 3,
+        "firstName": "First Name 11",
+        "lastName": "Last Name 11"
+    },</t>
   </si>
 </sst>
 </file>
@@ -1750,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -1822,7 +2222,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,15 +2236,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +2262,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H10:H16"/>
+      <selection activeCell="E11" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,7 +2278,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -1887,7 +2287,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1903,7 +2303,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -1930,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,15 +2347,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +2373,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +2389,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -1998,7 +2398,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2014,7 +2414,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2041,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2052,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2063,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -2074,21 +2474,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2506,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="M11" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,10 +2519,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2131,7 +2531,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2147,7 +2547,7 @@
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2174,10 +2574,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2196,21 +2596,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2227,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,10 +2641,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2253,7 +2653,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2269,7 +2669,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2296,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2329,21 +2729,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2360,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I8:I15"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2374,10 +2774,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2386,7 +2786,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2402,7 +2802,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2429,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2446,15 +2846,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2471,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G9:G16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,10 +2885,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2497,7 +2897,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2513,7 +2913,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2540,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2557,15 +2957,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2582,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,10 +2996,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2608,7 +3008,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2624,7 +3024,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2651,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2662,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2673,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -2684,21 +3084,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +3116,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2741,7 +3141,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2757,7 +3157,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2784,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2823,15 +3223,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +3249,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C14:C20"/>
+      <selection activeCell="H12" sqref="H9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2865,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2874,7 +3274,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -2890,7 +3290,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -2917,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2934,15 +3334,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +3360,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,7 +3376,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -2985,7 +3385,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3001,7 +3401,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3028,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3042,7 +3442,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3050,21 +3450,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3482,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E8:E13"/>
+      <selection activeCell="G16" sqref="G10:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3107,7 +3507,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3123,7 +3523,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3150,10 +3550,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3172,21 +3572,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3204,7 +3604,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3220,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3229,7 +3629,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3245,7 +3645,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3275,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3283,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3294,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -3305,21 +3705,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3737,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3362,7 +3762,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3378,7 +3778,7 @@
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3405,10 +3805,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3427,21 +3827,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3859,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="F15" sqref="F11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3475,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3484,7 +3884,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3500,7 +3900,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3527,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3560,21 +3960,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3992,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I12:I18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3608,7 +4008,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
@@ -3617,7 +4017,7 @@
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -3633,7 +4033,7 @@
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -3660,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3677,15 +4077,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
